--- a/test_folder/excel/可靠数字孪生.xlsx
+++ b/test_folder/excel/可靠数字孪生.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\file\军事需求excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liubing\Desktop\KG_manage\test_folder\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB950E-ED27-418D-868C-141F5458FD03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0B0F1E-C481-427C-A581-FFD766C1597A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1680" windowWidth="15660" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,26 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
-    <t>头实体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头实体类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾实体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾实体类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可靠性数字孪生概念内涵与技术框架研究</t>
   </si>
   <si>
@@ -71,6 +51,26 @@
   <si>
     <t>构建的数字孪生技术框架应覆盖构建数字孪生的 “全系统，个维度，能够进一步指导未来数字孪生技术研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail_node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -407,85 +407,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
